--- a/Component.xlsx
+++ b/Component.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\LEDCeliling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A635DAE5-C175-4829-8652-9B541DCC14D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA5CB91-60DD-465A-9ECB-BD198CEC822E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="CameraPositionCounts">6</definedName>
+    <definedName name="LedControlCircuitCounts">10</definedName>
+    <definedName name="PowerCounts">10</definedName>
+    <definedName name="PowerLiteCounts">20</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,53 +40,118 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>PowerLite</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>C344177</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BoardCoverter</t>
-  </si>
-  <si>
-    <t>Led_Control_Circuit</t>
-  </si>
-  <si>
-    <t>CameraPosition</t>
-  </si>
-  <si>
-    <t>22u</t>
-  </si>
-  <si>
-    <t>10u</t>
-  </si>
-  <si>
-    <t>Capacitor_SMD:C_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>0.1u</t>
-  </si>
-  <si>
-    <t>10n</t>
-  </si>
-  <si>
-    <t>1u</t>
-  </si>
-  <si>
-    <t>10p</t>
-  </si>
-  <si>
-    <t>15p</t>
+    <t>C376865</t>
+  </si>
+  <si>
+    <t>C3002651</t>
+  </si>
+  <si>
+    <t>C2044935</t>
+  </si>
+  <si>
+    <t>C2995315</t>
+  </si>
+  <si>
+    <t>C167447</t>
+  </si>
+  <si>
+    <t>C3002634</t>
+  </si>
+  <si>
+    <t>C5356338</t>
+  </si>
+  <si>
+    <t>C5140879</t>
+  </si>
+  <si>
+    <t>C5140646</t>
+  </si>
+  <si>
+    <t>C2907330</t>
+  </si>
+  <si>
+    <t>C913246</t>
+  </si>
+  <si>
+    <t>C5356361</t>
+  </si>
+  <si>
+    <t>C7813</t>
+  </si>
+  <si>
+    <t>C5181460</t>
+  </si>
+  <si>
+    <t>C5342366</t>
+  </si>
+  <si>
+    <t>C2856805</t>
+  </si>
+  <si>
+    <t>C3018536</t>
+  </si>
+  <si>
+    <t>C2903947</t>
+  </si>
+  <si>
+    <t>C114311</t>
+  </si>
+  <si>
+    <t>C133888</t>
+  </si>
+  <si>
+    <t>C845610</t>
+  </si>
+  <si>
+    <t>C376921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C181692</t>
+  </si>
+  <si>
+    <t>C5261052</t>
+  </si>
+  <si>
+    <t>C2888455</t>
+  </si>
+  <si>
+    <t>C91145</t>
+  </si>
+  <si>
+    <t>C5252897</t>
+  </si>
+  <si>
+    <t>C2827649</t>
+  </si>
+  <si>
+    <t>C2907310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2930296</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2934267</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2849007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,26 +167,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="源泉圓體 M"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="GenSenRounded TW M"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="源泉圓體 M"/>
+      <name val="GenSenRounded TW M"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="GenSenRounded TW M"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -127,21 +220,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -419,167 +520,365 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="41.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="41.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1">
+      <c r="B5" s="2">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>60</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="1">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1">
-        <f>C2*D1</f>
-        <v>90</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="K2" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1">
-        <f>C3*D1</f>
+      <c r="B15" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="4">
         <v>50</v>
       </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="4">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <f>C4*D1</f>
-        <v>30</v>
-      </c>
-      <c r="I4" s="1">
-        <v>4</v>
-      </c>
-      <c r="K4" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2</v>
-      </c>
-      <c r="K5" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="4">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Resistor-Today-AECR0805F2R00S9_C2849007.html" xr:uid="{37B88EF7-D9E4-480E-8C4F-0F5CA22C40AF}"/>
+    <hyperlink ref="A1" r:id="rId2" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_FOJAN-FRL0805FR500TS_C2934267.html" xr:uid="{71AC06DD-BF80-45EB-9CCB-5107ED7AB1D3}"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_TyoHM-RMC0805225-N_C269553.html" xr:uid="{089937D8-6759-4F1B-9368-1F9F07770DDF}"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_TyoHM-RMC0805225-N_C269553.html" xr:uid="{356A3C63-56C1-4F50-AEB0-D047D7526673}"/>
+    <hyperlink ref="A5" r:id="rId5" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_CCTC-TCC0805COG100J500BT_C344177.html" xr:uid="{E09ECDE6-C2F9-49FE-BEE5-2F4449BCC126}"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_CCTC-TCC0805COG150J500BT_C376865.html" xr:uid="{5EF44705-E813-4044-BFC0-AF6792D99420}"/>
+    <hyperlink ref="A7" r:id="rId7" display="https://www.lcsc.com/product-detail/Power-Inductors_CENKER-CKST0605-15uH-M_C3002651.html" xr:uid="{34772703-E1FF-4610-8E5D-7609080E36F6}"/>
+    <hyperlink ref="A8" r:id="rId8" display="https://www.lcsc.com/product-detail/Inductors-SMD_Taiyo-Yuden-MEKK2520T1R0M_C2044935.html" xr:uid="{70AE0C8A-DD88-4B4E-AB7A-AAF76926AC1B}"/>
+    <hyperlink ref="A9" r:id="rId9" display="https://www.lcsc.com/product-detail/Schottky-Barrier-Diodes-SBD_MSKSEMI-1N5819HW-MS_C2995315.html" xr:uid="{656981A3-2CDF-4883-88CB-37FF130F021F}"/>
+    <hyperlink ref="A10" r:id="rId10" display="https://www.lcsc.com/product-detail/Inductors-SMD_Murata-Electronics-1239AS-H-1R0M-P2_C167447.html" xr:uid="{66721114-3232-4EBE-924A-31AFDD4A60FB}"/>
+    <hyperlink ref="A11" r:id="rId11" display="https://www.lcsc.com/product-detail/Power-Inductors_CENKER-CKST0603-2-2uH-M_C3002634.html" xr:uid="{03A3E54A-E08C-4983-9F8F-603E76100C78}"/>
+    <hyperlink ref="A12" r:id="rId12" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Sunway-SC0805J2003F4ANRH_C5356338.html" xr:uid="{BF84479D-BD8E-4FE5-97C4-2C77D3D96709}"/>
+    <hyperlink ref="A13" r:id="rId13" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Sunway-SC0805J2202F4ANRH_C5140879.html" xr:uid="{2F781F84-0A20-433B-8B6F-42460318B736}"/>
+    <hyperlink ref="A14" r:id="rId14" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Sunway-SC0805J3301F4ANRH_C5140646.html" xr:uid="{5682A988-604D-4FEC-8288-E8A3C88FB5D3}"/>
+    <hyperlink ref="A15" r:id="rId15" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_FOJAN-FRC0805J473-TS_C2907330.html" xr:uid="{49066069-9DFC-4D17-8A5D-B715DEEBF8FB}"/>
+    <hyperlink ref="A16" r:id="rId16" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Sunway-SC0805J5101F4ANRH_C5140644.html" xr:uid="{4EBA142D-E42F-400E-BAA1-A3F345005084}"/>
+    <hyperlink ref="A17" r:id="rId17" display="https://www.lcsc.com/product-detail/Variable-Resistors-Potentiometers_BOURNS-TC33X-2-503E_C913246.html" xr:uid="{F3D42A88-E959-4D10-B726-C0997DE7C965}"/>
+    <hyperlink ref="A18" r:id="rId18" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Sunway-SC0805J5102F4ANRH_C5356361.html" xr:uid="{01DA3F3B-189D-40C6-895C-11574856C0E2}"/>
+    <hyperlink ref="A19" r:id="rId19" display="https://www.lcsc.com/product-detail/Buffer-Driver-Transceiver_Texas-Instruments-SN74LVC125APWR_C7813.html" xr:uid="{A8AE0A82-576C-46B3-B981-94664A91230E}"/>
+    <hyperlink ref="A20" r:id="rId20" display="https://www.lcsc.com/product-detail/Linear-Voltage-Regulators-LDO_HX-hengjiaxing-AMS1117-3-3_C5181460.html" xr:uid="{AA5CE470-ACD3-42E4-9A1D-A50EA784C476}"/>
+    <hyperlink ref="A21" r:id="rId21" display="https://www.lcsc.com/product-detail/MOSFETs_TECH-PUBLIC-AOD417_C5342366.html" xr:uid="{CFB8F632-AAB8-463C-AE0F-6268F78FA61C}"/>
+    <hyperlink ref="A22" r:id="rId22" display="https://www.lcsc.com/product-detail/FFC-FPC-Connectors_XUNPU-FPC-05F-24PH20_C2856805.html" xr:uid="{C6078500-5ED3-4BFD-9344-C478BEE8B7CA}"/>
+    <hyperlink ref="A23" r:id="rId23" display="https://www.lcsc.com/product-detail/Schottky-Barrier-Diodes-SBD_FUXINSEMI-SS54_C3018536.html" xr:uid="{1159C997-685D-4535-AFF7-9AD459C0A604}"/>
+    <hyperlink ref="A24" r:id="rId24" display="https://www.lcsc.com/product-detail/Schottky-Barrier-Diodes-SBD_GOODWORK-SS1045-SMB_C2903947.html" xr:uid="{8E1431F4-EEDF-431C-B752-440D94F81EA2}"/>
+    <hyperlink ref="A25" r:id="rId25" display="https://www.lcsc.com/product-detail/DC-DC-Converters_Advanced-Analog-Technology-FP6188XR-G1_C114311.html" xr:uid="{313C2E31-78A1-45DA-B313-942C3385ADB7}"/>
+    <hyperlink ref="A26" r:id="rId26" display="https://www.lcsc.com/product-detail/DC-DC-Converters_Advanced-Analog-Technology-FP6296XR-G1_C133888.html" xr:uid="{91520768-F959-4D9A-AFCC-706B20C5C10F}"/>
+    <hyperlink ref="A27" r:id="rId27" display="https://www.lcsc.com/product-detail/MOSFETs_HUASHUO-HSU60P02_C845610.html" xr:uid="{2B7B6F83-E6FF-4102-B83B-2AA504E2D5A6}"/>
+    <hyperlink ref="A28" r:id="rId28" display="https://www.lcsc.com/product-detail/Battery-Management-ICs_INJOINIC-IP5306_C181692.html" xr:uid="{2560BF3E-2DA7-4F3A-980C-99CB3EC9BA60}"/>
+    <hyperlink ref="A29" r:id="rId29" display="https://www.lcsc.com/product-detail/MOSFETs_HXY-MOSFET-SI2301-ZE_C5261052.html" xr:uid="{05045633-ACAA-4D37-AE12-07BFCF9F71EA}"/>
+    <hyperlink ref="A30" r:id="rId30" display="https://www.lcsc.com/product-detail/Tactile-Switches_BZCN-TSB008A2518A_C2888455.html" xr:uid="{BE353037-B1CA-4CC9-ABED-F8F82999CF11}"/>
+    <hyperlink ref="A32" r:id="rId31" display="https://www.lcsc.com/product-detail/Linear-Voltage-Regulators-LDO_MSKSEMI-XC6206P282MR-MS_C5252897.html" xr:uid="{04D1D98D-C4AC-4080-B67A-1649EE0DF397}"/>
+    <hyperlink ref="A33" r:id="rId32" display="https://www.lcsc.com/product-detail/Linear-Voltage-Regulators-LDO_TECH-PUBLIC-XC6206P122MR-1uA_C2827649.html" xr:uid="{1A835372-5E43-474D-A59B-B0FA0C8255A3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId33"/>
 </worksheet>
 </file>